--- a/Decision_Support_File_aktualizovany_16_10.xlsx
+++ b/Decision_Support_File_aktualizovany_16_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SMA\SMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0894201-8734-49CE-90CB-BFC5CC206D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1C5EC-FFEE-42AF-96C8-DDFE1ABAA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="515" activeTab="1" xr2:uid="{E5C34987-F13D-4E29-8950-489D74BB707D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="515" activeTab="2" xr2:uid="{E5C34987-F13D-4E29-8950-489D74BB707D}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="15" r:id="rId1"/>
@@ -2421,6 +2421,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2505,10 +2507,55 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2532,53 +2579,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Čárka" xfId="1" builtinId="3"/>
@@ -2916,7 +2916,7 @@
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="331" t="s">
+      <c r="B1" s="333" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="331"/>
+      <c r="B2" s="333"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="str">
@@ -3087,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3105,23 +3105,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="335" t="str">
+      <c r="A1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("FINANČNÍ VÝSLEDKY FIRMY ",Instructions!$B$5),CONCATENATE("FINANCIAL RESULTS FOR COMPANY ",Instructions!$B$5))</f>
         <v>FINANČNÍ VÝSLEDKY FIRMY Byte Strategists</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="G1" s="335" t="str">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="G1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("ROČNÍ SOUHRN FIRMY ",Instructions!$B$5),CONCATENATE("FOUR-QUARTER SURVEY FOR COMPANY ",Instructions!$B$5))</f>
         <v>ROČNÍ SOUHRN FIRMY Byte Strategists</v>
       </c>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="319" t="str">
@@ -3130,12 +3130,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="338" t="str">
+      <c r="A3" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","MARKETING A PRODEJ","MARKETING AND SALES")</f>
         <v>MARKETING A PRODEJ</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
       <c r="D3" s="104" t="str">
         <f>IF(Instructions!$B$1="CZ","Čtvrtletí","Quarter")</f>
         <v>Čtvrtletí</v>
@@ -3257,8 +3257,8 @@
         <f>RawData!D17</f>
         <v>570</v>
       </c>
-      <c r="D6" s="342"/>
-      <c r="E6" s="343"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="345"/>
       <c r="G6" s="241" t="str">
         <f>IF(Instructions!$B$1="CZ","Nepřímé náklady","Indirect costs")</f>
         <v>Nepřímé náklady</v>
@@ -3426,14 +3426,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="338" t="str">
+      <c r="A11" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝROBA","PRODUCTION")</f>
         <v>VÝROBA</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="343"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="342"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
       <c r="G11" s="241" t="str">
         <f>IF(Instructions!$B$1="CZ","Mimořádné příjmy","Extraordinary revenues")</f>
         <v>Mimořádné příjmy</v>
@@ -3682,12 +3682,12 @@
       <c r="L17" s="176"/>
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="str">
+      <c r="A18" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","ZÁSOBOVÁNÍ","PROCUREMENT")</f>
         <v>ZÁSOBOVÁNÍ</v>
       </c>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="342"/>
       <c r="G18" s="243" t="str">
         <f>IF(Instructions!$B$1="CZ","Výroba - plán [%]","Production - plan [%]")</f>
         <v>Výroba - plán [%]</v>
@@ -3944,14 +3944,14 @@
       <c r="L25" s="176"/>
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="str">
+      <c r="A26" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","LIDSKÉ ZDROJE","HUMAN RESOURCES")</f>
         <v>LIDSKÉ ZDROJE</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="334"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
       <c r="G26" s="245" t="str">
         <f>IF(Instructions!$B$1="CZ","Suroviny - sleva","Raw materials - discount")</f>
         <v>Suroviny - sleva</v>
@@ -4212,10 +4212,10 @@
       <c r="L33" s="144"/>
     </row>
     <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="341" t="s">
+      <c r="A34" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="341"/>
+      <c r="B34" s="343"/>
       <c r="C34" s="134"/>
       <c r="D34" s="134"/>
       <c r="E34" s="134"/>
@@ -4571,14 +4571,14 @@
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="332" t="str">
+      <c r="A56" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","ROZVAHA","BALANCE SHEET")</f>
         <v>ROZVAHA</v>
       </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="334"/>
+      <c r="B56" s="335"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
+      <c r="E56" s="336"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="128" t="str">
@@ -4686,10 +4686,10 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="332" t="s">
+      <c r="A64" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="334"/>
+      <c r="B64" s="336"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -4744,11 +4744,11 @@
     </row>
     <row r="70" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="336" t="str">
+      <c r="A71" s="338" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝKAZ ZISKŮ A ZTRÁT","PROFIT AND LOSS ACCOUNT")</f>
         <v>VÝKAZ ZISKŮ A ZTRÁT</v>
       </c>
-      <c r="B71" s="337"/>
+      <c r="B71" s="339"/>
       <c r="G71" s="7" t="str">
         <f>IF(Instructions!$B$1="CZ","Ziskovost-STOLY","Profitability-DESKS")</f>
         <v>Ziskovost-STOLY</v>
@@ -5190,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5222,13 +5222,13 @@
         <f>IF(Instructions!$B$1="CZ","Pokud máte informace o budoucím vývoji cen surovin, vložte je sem.","If you have any information on the raw materials prices, enter it here.")</f>
         <v>Pokud máte informace o budoucím vývoji cen surovin, vložte je sem.</v>
       </c>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387" t="s">
+      <c r="M1" s="331"/>
+      <c r="N1" s="331" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="387"/>
-      <c r="P1" s="387"/>
-      <c r="Q1" s="387"/>
+      <c r="O1" s="331"/>
+      <c r="P1" s="331"/>
+      <c r="Q1" s="331"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="str">
@@ -5251,13 +5251,13 @@
         <f>IF(Instructions!$B$1="CZ","KOV","METAL")</f>
         <v>KOV</v>
       </c>
-      <c r="M2" s="387" t="s">
+      <c r="M2" s="331" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="387"/>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
+      <c r="N2" s="331"/>
+      <c r="O2" s="331"/>
+      <c r="P2" s="331"/>
+      <c r="Q2" s="331"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="20">
@@ -5269,17 +5269,17 @@
       <c r="K3" s="224">
         <v>16.61</v>
       </c>
-      <c r="M3" s="387" t="s">
+      <c r="M3" s="331" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="387" t="s">
+      <c r="N3" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="387" t="s">
+      <c r="O3" s="331" t="s">
         <v>189</v>
       </c>
-      <c r="P3" s="387"/>
-      <c r="Q3" s="387"/>
+      <c r="P3" s="331"/>
+      <c r="Q3" s="331"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="250" t="str">
@@ -5297,17 +5297,17 @@
       <c r="K4" s="224">
         <v>17.36</v>
       </c>
-      <c r="M4" s="387" t="s">
+      <c r="M4" s="331" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="388">
+      <c r="N4" s="332">
         <v>1249</v>
       </c>
-      <c r="O4" s="388">
+      <c r="O4" s="332">
         <v>16700</v>
       </c>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="387"/>
+      <c r="P4" s="331"/>
+      <c r="Q4" s="331"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="str">
@@ -5331,17 +5331,17 @@
       <c r="K5" s="224">
         <v>16.760000000000002</v>
       </c>
-      <c r="M5" s="387" t="s">
+      <c r="M5" s="331" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="388">
+      <c r="N5" s="332">
         <v>1249</v>
       </c>
-      <c r="O5" s="388">
+      <c r="O5" s="332">
         <v>17770</v>
       </c>
-      <c r="P5" s="387"/>
-      <c r="Q5" s="387"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="str">
@@ -5363,17 +5363,17 @@
       <c r="K6" s="224">
         <v>17.809999999999999</v>
       </c>
-      <c r="M6" s="387" t="s">
+      <c r="M6" s="331" t="s">
         <v>184</v>
       </c>
-      <c r="N6" s="388">
+      <c r="N6" s="332">
         <v>1249</v>
       </c>
-      <c r="O6" s="388">
+      <c r="O6" s="332">
         <v>19121</v>
       </c>
-      <c r="P6" s="387"/>
-      <c r="Q6" s="387"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="331"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I7" s="20">
@@ -5385,17 +5385,17 @@
       <c r="K7" s="326">
         <v>15</v>
       </c>
-      <c r="M7" s="387" t="s">
+      <c r="M7" s="331" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="388">
+      <c r="N7" s="332">
         <v>1249</v>
       </c>
-      <c r="O7" s="388">
+      <c r="O7" s="332">
         <v>17926</v>
       </c>
-      <c r="P7" s="387"/>
-      <c r="Q7" s="387"/>
+      <c r="P7" s="331"/>
+      <c r="Q7" s="331"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="250" t="str">
@@ -5412,11 +5412,11 @@
       <c r="K8" s="326">
         <v>15</v>
       </c>
-      <c r="M8" s="387"/>
-      <c r="N8" s="387"/>
-      <c r="O8" s="387"/>
-      <c r="P8" s="387"/>
-      <c r="Q8" s="387"/>
+      <c r="M8" s="331"/>
+      <c r="N8" s="331"/>
+      <c r="O8" s="331"/>
+      <c r="P8" s="331"/>
+      <c r="Q8" s="331"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="str">
@@ -5435,11 +5435,11 @@
       <c r="K9" s="326">
         <v>15</v>
       </c>
-      <c r="M9" s="387"/>
-      <c r="N9" s="387"/>
-      <c r="O9" s="387"/>
-      <c r="P9" s="387"/>
-      <c r="Q9" s="387"/>
+      <c r="M9" s="331"/>
+      <c r="N9" s="331"/>
+      <c r="O9" s="331"/>
+      <c r="P9" s="331"/>
+      <c r="Q9" s="331"/>
     </row>
     <row r="10" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I10" s="24">
@@ -5451,13 +5451,13 @@
       <c r="K10" s="326">
         <v>15</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="387" t="s">
+      <c r="M10" s="331"/>
+      <c r="N10" s="331" t="s">
         <v>190</v>
       </c>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
+      <c r="O10" s="331"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="331"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="250" t="str">
@@ -5465,15 +5465,15 @@
         <v>Konkurenti</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="387" t="s">
+      <c r="M11" s="331"/>
+      <c r="N11" s="331" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="387" t="s">
+      <c r="O11" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
@@ -5487,13 +5487,13 @@
         <f>IF(Instructions!$B$1="CZ","Pokud máte informace o budoucím vývoji tržních potenciálů, můžete si je vložit např. sem.","If you have information on the future market potentials, you can work with it e.g. here.")</f>
         <v>Pokud máte informace o budoucím vývoji tržních potenciálů, můžete si je vložit např. sem.</v>
       </c>
-      <c r="M12" s="387"/>
-      <c r="N12" s="387" t="s">
+      <c r="M12" s="331"/>
+      <c r="N12" s="331" t="s">
         <v>182</v>
       </c>
-      <c r="O12" s="387"/>
-      <c r="P12" s="387"/>
-      <c r="Q12" s="387"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
@@ -5507,13 +5507,13 @@
         <f>IF(Instructions!$B$1="CZ","STOLY","DESKS")</f>
         <v>STOLY</v>
       </c>
-      <c r="M13" s="387"/>
-      <c r="N13" s="387" t="s">
+      <c r="M13" s="331"/>
+      <c r="N13" s="331" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="387"/>
-      <c r="P13" s="387"/>
-      <c r="Q13" s="387"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" t="str">
@@ -5532,13 +5532,13 @@
         <f>IF(Instructions!$B$1="CZ","Tržní potenciál jedné firmy","Single firm Market potential")</f>
         <v>Tržní potenciál jedné firmy</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="387" t="s">
+      <c r="M14" s="331"/>
+      <c r="N14" s="331" t="s">
         <v>184</v>
       </c>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="250" t="str">
@@ -5566,13 +5566,13 @@
         <f>K15/5</f>
         <v>3340</v>
       </c>
-      <c r="M15" s="387"/>
-      <c r="N15" s="387" t="s">
+      <c r="M15" s="331"/>
+      <c r="N15" s="331" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
@@ -5592,11 +5592,11 @@
         <f t="shared" ref="L16:L31" si="0">K16/5</f>
         <v>3554</v>
       </c>
-      <c r="M16" s="387"/>
-      <c r="N16" s="387"/>
-      <c r="O16" s="387"/>
-      <c r="P16" s="387"/>
-      <c r="Q16" s="387"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
@@ -5624,13 +5624,13 @@
         <f t="shared" si="0"/>
         <v>3824.2</v>
       </c>
-      <c r="M17" s="387"/>
-      <c r="N17" s="387" t="s">
+      <c r="M17" s="331"/>
+      <c r="N17" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="O17" s="387"/>
-      <c r="P17" s="387"/>
-      <c r="Q17" s="387"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="331"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
@@ -5652,11 +5652,11 @@
         <f t="shared" si="0"/>
         <v>3585.2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="387"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="331"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J19" s="1"/>
@@ -5665,15 +5665,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="387"/>
-      <c r="N19" s="387" t="s">
+      <c r="M19" s="331"/>
+      <c r="N19" s="331" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="387" t="s">
+      <c r="O19" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
+      <c r="P19" s="331"/>
+      <c r="Q19" s="331"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="250" t="str">
@@ -5682,11 +5682,11 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="E20" s="344" t="str">
+      <c r="E20" s="346" t="str">
         <f>IF(Instructions!B1="CZ","Vyrobená množství","Produced amounts")</f>
         <v>Vyrobená množství</v>
       </c>
-      <c r="F20" s="344"/>
+      <c r="F20" s="346"/>
       <c r="G20" s="8" t="str">
         <f>IF(Instructions!B1="CZ","Potřeba pracovníků","Need of workers")</f>
         <v>Potřeba pracovníků</v>
@@ -5697,15 +5697,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="387"/>
-      <c r="N20" s="387" t="s">
+      <c r="M20" s="331"/>
+      <c r="N20" s="331" t="s">
         <v>182</v>
       </c>
-      <c r="O20" s="387">
+      <c r="O20" s="331">
         <v>16.61</v>
       </c>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="387"/>
+      <c r="P20" s="331"/>
+      <c r="Q20" s="331"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
@@ -5733,15 +5733,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="387"/>
-      <c r="N21" s="387" t="s">
+      <c r="M21" s="331"/>
+      <c r="N21" s="331" t="s">
         <v>183</v>
       </c>
-      <c r="O21" s="387">
+      <c r="O21" s="331">
         <v>17.36</v>
       </c>
-      <c r="P21" s="387"/>
-      <c r="Q21" s="387"/>
+      <c r="P21" s="331"/>
+      <c r="Q21" s="331"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
@@ -5774,15 +5774,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="387" t="s">
+      <c r="M22" s="331"/>
+      <c r="N22" s="331" t="s">
         <v>184</v>
       </c>
-      <c r="O22" s="387">
+      <c r="O22" s="331">
         <v>16.760000000000002</v>
       </c>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
+      <c r="P22" s="331"/>
+      <c r="Q22" s="331"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
@@ -5815,15 +5815,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387" t="s">
+      <c r="M23" s="331"/>
+      <c r="N23" s="331" t="s">
         <v>185</v>
       </c>
-      <c r="O23" s="387">
+      <c r="O23" s="331">
         <v>17.809999999999999</v>
       </c>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
+      <c r="P23" s="331"/>
+      <c r="Q23" s="331"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
@@ -5856,11 +5856,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="387"/>
-      <c r="N24" s="387"/>
-      <c r="O24" s="387"/>
-      <c r="P24" s="387"/>
-      <c r="Q24" s="387"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="331"/>
+      <c r="O24" s="331"/>
+      <c r="P24" s="331"/>
+      <c r="Q24" s="331"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
@@ -5893,13 +5893,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="387"/>
-      <c r="N25" s="387" t="s">
+      <c r="M25" s="331"/>
+      <c r="N25" s="331" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="387"/>
-      <c r="P25" s="387"/>
-      <c r="Q25" s="387"/>
+      <c r="O25" s="331"/>
+      <c r="P25" s="331"/>
+      <c r="Q25" s="331"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="str">
@@ -5932,11 +5932,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="387"/>
-      <c r="N26" s="387"/>
-      <c r="O26" s="387"/>
-      <c r="P26" s="387"/>
-      <c r="Q26" s="387"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="331"/>
+      <c r="O26" s="331"/>
+      <c r="P26" s="331"/>
+      <c r="Q26" s="331"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="str">
@@ -5969,17 +5969,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="387"/>
-      <c r="N27" s="387" t="s">
+      <c r="M27" s="331"/>
+      <c r="N27" s="331" t="s">
         <v>187</v>
       </c>
-      <c r="O27" s="387" t="s">
+      <c r="O27" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="387" t="s">
+      <c r="P27" s="331" t="s">
         <v>189</v>
       </c>
-      <c r="Q27" s="387"/>
+      <c r="Q27" s="331"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="str">
@@ -6012,17 +6012,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="387"/>
-      <c r="N28" s="387" t="s">
+      <c r="M28" s="331"/>
+      <c r="N28" s="331" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="387" t="s">
+      <c r="O28" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="P28" s="387" t="s">
+      <c r="P28" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="Q28" s="387"/>
+      <c r="Q28" s="331"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="str">
@@ -6055,17 +6055,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="387"/>
-      <c r="N29" s="387" t="s">
+      <c r="M29" s="331"/>
+      <c r="N29" s="331" t="s">
         <v>183</v>
       </c>
-      <c r="O29" s="387" t="s">
+      <c r="O29" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="387" t="s">
+      <c r="P29" s="331" t="s">
         <v>195</v>
       </c>
-      <c r="Q29" s="387"/>
+      <c r="Q29" s="331"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="str">
@@ -6098,17 +6098,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="387"/>
-      <c r="N30" s="387" t="s">
+      <c r="M30" s="331"/>
+      <c r="N30" s="331" t="s">
         <v>184</v>
       </c>
-      <c r="O30" s="387" t="s">
+      <c r="O30" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="387" t="s">
+      <c r="P30" s="331" t="s">
         <v>196</v>
       </c>
-      <c r="Q30" s="387"/>
+      <c r="Q30" s="331"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="str">
@@ -6141,17 +6141,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="387"/>
-      <c r="N31" s="387" t="s">
+      <c r="M31" s="331"/>
+      <c r="N31" s="331" t="s">
         <v>185</v>
       </c>
-      <c r="O31" s="387" t="s">
+      <c r="O31" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="P31" s="387" t="s">
+      <c r="P31" s="331" t="s">
         <v>197</v>
       </c>
-      <c r="Q31" s="387"/>
+      <c r="Q31" s="331"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="str">
@@ -6458,13 +6458,13 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="345" t="str">
+      <c r="B52" s="347" t="str">
         <f>IF(Instructions!B1="CZ","POZOR, automatické splátky zde nefungují, takže zadejte nejen příp. mimořádnou splátku, ale také příp. 'automatickou' splátku 1/20 částky úvěru přidělené před čtyřmi čtvrtletími.","WARNING: Automatic repayments do not work here, therefore you should not only input your possible exceptional repayments, but also the 'automatic' repayments, i.e. the amount of one twentieth of the credit received four quarters ago...")</f>
         <v>POZOR, automatické splátky zde nefungují, takže zadejte nejen příp. mimořádnou splátku, ale také příp. 'automatickou' splátku 1/20 částky úvěru přidělené před čtyřmi čtvrtletími.</v>
       </c>
-      <c r="C52" s="345"/>
-      <c r="D52" s="345"/>
-      <c r="E52" s="345"/>
+      <c r="C52" s="347"/>
+      <c r="D52" s="347"/>
+      <c r="E52" s="347"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6503,24 +6503,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="346" t="str">
+      <c r="A1" s="348" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("FINANČNÍ VÝSLEDKY FIRMY ",Instructions!B5),CONCATENATE("FINANCIAL RESULTS FOR COMPANY ",Instructions!B5))</f>
         <v>FINANČNÍ VÝSLEDKY FIRMY Byte Strategists</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="346" t="str">
+      <c r="G1" s="348" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("ROČNÍ SOUHRN FIRMY ",Instructions!B5),CONCATENATE("FOUR-QUARTER SURVEY FOR COMPANY ",Instructions!B5))</f>
         <v>ROČNÍ SOUHRN FIRMY Byte Strategists</v>
       </c>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
+      <c r="J1" s="348"/>
+      <c r="K1" s="348"/>
+      <c r="L1" s="348"/>
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6539,12 +6539,12 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="352" t="str">
+      <c r="A3" s="354" t="str">
         <f>IF(Instructions!$B$1="CZ","MARKETING A PRODEJ","MARKETING AND SALES")</f>
         <v>MARKETING A PRODEJ</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="354"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="356"/>
       <c r="D3" s="15" t="str">
         <f>IF(Instructions!$B$1="CZ","Očekávané výsledky pro čtvrtletí:","Expected results in quarter:")</f>
         <v>Očekávané výsledky pro čtvrtletí:</v>
@@ -6677,8 +6677,8 @@
         <f>Decision!C18</f>
         <v>0</v>
       </c>
-      <c r="D6" s="355"/>
-      <c r="E6" s="356"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="358"/>
       <c r="F6" s="13"/>
       <c r="G6" s="106" t="str">
         <f>IF(Instructions!$B$1="CZ","Nepřímé náklady","Indirect costs")</f>
@@ -6717,11 +6717,11 @@
       <c r="C7" s="324">
         <v>870</v>
       </c>
-      <c r="D7" s="357" t="str">
+      <c r="D7" s="359" t="str">
         <f>IF(Instructions!$B$1="CZ","&lt;=Doplňte očekávaný potenciál trhu pro VAŠI firmu","&lt;=Fill-in the expected potential for YOUR company")</f>
         <v>&lt;=Doplňte očekávaný potenciál trhu pro VAŠI firmu</v>
       </c>
-      <c r="E7" s="358"/>
+      <c r="E7" s="360"/>
       <c r="F7" s="13"/>
       <c r="G7" s="106" t="str">
         <f>IF(Instructions!$B$1="CZ","Provozní zisk","Operating result")</f>
@@ -6864,14 +6864,14 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="352" t="str">
+      <c r="A11" s="354" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝROBA","PRODUCTION")</f>
         <v>VÝROBA</v>
       </c>
-      <c r="B11" s="353"/>
-      <c r="C11" s="354"/>
-      <c r="D11" s="355"/>
-      <c r="E11" s="356"/>
+      <c r="B11" s="355"/>
+      <c r="C11" s="356"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="358"/>
       <c r="F11" s="32"/>
       <c r="G11" s="106" t="str">
         <f>IF(Instructions!$B$1="CZ","Mimořádné příjmy","Extraordinary revenues")</f>
@@ -7092,12 +7092,12 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="352" t="str">
+      <c r="A17" s="354" t="str">
         <f>IF(Instructions!$B$1="CZ","ZÁSOBOVÁNÍ","PROCUREMENT")</f>
         <v>ZÁSOBOVÁNÍ</v>
       </c>
-      <c r="B17" s="353"/>
-      <c r="C17" s="354"/>
+      <c r="B17" s="355"/>
+      <c r="C17" s="356"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -7392,14 +7392,14 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="347" t="str">
+      <c r="A25" s="349" t="str">
         <f>IF(Instructions!$B$1="CZ","LIDSKÉ ZDROJE","HUMAN RESOURCES")</f>
         <v>LIDSKÉ ZDROJE</v>
       </c>
-      <c r="B25" s="348"/>
-      <c r="C25" s="348"/>
-      <c r="D25" s="348"/>
-      <c r="E25" s="349"/>
+      <c r="B25" s="350"/>
+      <c r="C25" s="350"/>
+      <c r="D25" s="350"/>
+      <c r="E25" s="351"/>
       <c r="F25" s="13"/>
       <c r="G25" s="115" t="str">
         <f>IF(Instructions!$B$1="CZ","Suroviny - nákup","Raw materials - purchase")</f>
@@ -7686,10 +7686,10 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="350" t="s">
+      <c r="A33" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="351"/>
+      <c r="B33" s="353"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
@@ -8149,14 +8149,14 @@
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="347" t="str">
+      <c r="A55" s="349" t="str">
         <f>IF(Instructions!$B$1="CZ","ROZVAHA","BALANCE SHEET")</f>
         <v>ROZVAHA</v>
       </c>
-      <c r="B55" s="348"/>
-      <c r="C55" s="348"/>
-      <c r="D55" s="348"/>
-      <c r="E55" s="349"/>
+      <c r="B55" s="350"/>
+      <c r="C55" s="350"/>
+      <c r="D55" s="350"/>
+      <c r="E55" s="351"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8314,11 +8314,11 @@
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="350" t="str">
+      <c r="A67" s="352" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝKAZ ZISKŮ A ZTRÁT","PROFIT AND LOSS ACCOUNT")</f>
         <v>VÝKAZ ZISKŮ A ZTRÁT</v>
       </c>
-      <c r="B67" s="351"/>
+      <c r="B67" s="353"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -8672,17 +8672,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="372" t="str">
+      <c r="A1" s="361" t="str">
         <f>IF(Instructions!B1="CZ","Prodejní ceny (Kč za kus)","Sales prices [CZK per piece]")</f>
         <v>Prodejní ceny (Kč za kus)</v>
       </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="374"/>
-      <c r="E1" s="375" t="str">
+      <c r="B1" s="362"/>
+      <c r="C1" s="363"/>
+      <c r="E1" s="364" t="str">
         <f>IF(Instructions!B1="CZ","Skladovací náklady","Storage costs")</f>
         <v>Skladovací náklady</v>
       </c>
-      <c r="F1" s="377"/>
+      <c r="F1" s="366"/>
     </row>
     <row r="2" spans="1:7" s="210" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="251" t="str">
@@ -8746,17 +8746,17 @@
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="385" t="str">
+      <c r="A7" s="376" t="str">
         <f>IF(Instructions!B1="CZ","Fixní ceny","Fixed prices")</f>
         <v>Fixní ceny</v>
       </c>
-      <c r="B7" s="386"/>
+      <c r="B7" s="377"/>
       <c r="C7" s="259"/>
-      <c r="E7" s="375" t="str">
+      <c r="E7" s="364" t="str">
         <f>IF(Instructions!B1="CZ","Fixní ceny","Fixed prices")</f>
         <v>Fixní ceny</v>
       </c>
-      <c r="F7" s="377"/>
+      <c r="F7" s="366"/>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="260" t="str">
@@ -8813,18 +8813,18 @@
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="375" t="str">
+      <c r="A13" s="364" t="str">
         <f>IF(Instructions!B1="CZ","Časové rozvržení aktivit","Time schedule of activities")</f>
         <v>Časové rozvržení aktivit</v>
       </c>
-      <c r="B13" s="376"/>
-      <c r="C13" s="377"/>
-      <c r="E13" s="375" t="str">
+      <c r="B13" s="365"/>
+      <c r="C13" s="366"/>
+      <c r="E13" s="364" t="str">
         <f>IF(Instructions!B1="CZ","Potřeba vstupních surovin (kg)","Need of raw materials [kg]")</f>
         <v>Potřeba vstupních surovin (kg)</v>
       </c>
-      <c r="F13" s="376"/>
-      <c r="G13" s="377"/>
+      <c r="F13" s="365"/>
+      <c r="G13" s="366"/>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="251" t="str">
@@ -8851,15 +8851,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="361" t="str">
+      <c r="A15" s="378" t="str">
         <f>IF(Instructions!B1="CZ","Aktivita","Activity")</f>
         <v>Aktivita</v>
       </c>
-      <c r="B15" s="381" t="str">
+      <c r="B15" s="372" t="str">
         <f>IF(Instructions!B1="CZ","plánování a výroba","planning and production")</f>
         <v>plánování a výroba</v>
       </c>
-      <c r="C15" s="383" t="str">
+      <c r="C15" s="374" t="str">
         <f>IF(Instructions!B1="CZ","prodej","sales")</f>
         <v>prodej</v>
       </c>
@@ -8875,9 +8875,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="362"/>
-      <c r="B16" s="382"/>
-      <c r="C16" s="384"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="373"/>
+      <c r="C16" s="375"/>
       <c r="E16" s="24" t="str">
         <f>IF(Instructions!B1="CZ","Kov","Metal")</f>
         <v>Kov</v>
@@ -8913,14 +8913,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="363" t="str">
+      <c r="A19" s="380" t="str">
         <f>IF(Instructions!B1="CZ","Doba výroby, výrobní dávky a  potřeba pracovníků na 1 stroj","Production time, batches, and need of workers")</f>
         <v>Doba výroby, výrobní dávky a  potřeba pracovníků na 1 stroj</v>
       </c>
-      <c r="B19" s="364"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="B19" s="381"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="382"/>
       <c r="F19" s="13">
         <f>1100*1500-F18-F17</f>
         <v>1409592</v>
@@ -8936,16 +8936,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="271"/>
-      <c r="B20" s="379" t="str">
+      <c r="B20" s="370" t="str">
         <f>IF(Instructions!B1="CZ","Stoly","Desks")</f>
         <v>Stoly</v>
       </c>
-      <c r="C20" s="380"/>
-      <c r="D20" s="379" t="str">
+      <c r="C20" s="371"/>
+      <c r="D20" s="370" t="str">
         <f>IF(Instructions!B1="CZ","Skříňky","Cabinets")</f>
         <v>Skříňky</v>
       </c>
-      <c r="E20" s="380"/>
+      <c r="E20" s="371"/>
     </row>
     <row r="21" spans="1:10" s="210" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="272" t="str">
@@ -9090,14 +9090,14 @@
     </row>
     <row r="30" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="359" t="str">
+      <c r="A31" s="367" t="str">
         <f>IF(Instructions!B1="CZ","Vliv personálního indexu (PI) na absenci","Influence of the Personnel index (PI) on sick-leave")</f>
         <v>Vliv personálního indexu (PI) na absenci</v>
       </c>
-      <c r="B31" s="360"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="378"/>
+      <c r="B31" s="368"/>
+      <c r="C31" s="368"/>
+      <c r="D31" s="368"/>
+      <c r="E31" s="369"/>
       <c r="I31" s="13" t="str">
         <f>IF(Instructions!B1="CZ","Mzda při MI=100","Wage if MI=100")</f>
         <v>Mzda při MI=100</v>
@@ -9148,67 +9148,67 @@
     </row>
     <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="359" t="str">
+      <c r="A36" s="367" t="str">
         <f>IF(Instructions!B1="CZ","Ceny průzkumů trhu","Prices of market surveys")</f>
         <v>Ceny průzkumů trhu</v>
       </c>
-      <c r="B36" s="360"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
+      <c r="B36" s="368"/>
+      <c r="C36" s="368"/>
+      <c r="D36" s="368"/>
+      <c r="E36" s="368"/>
       <c r="F36" s="279" t="str">
         <f>IF(Instructions!B1="CZ","Cena (Kč)","Price [CZK]")</f>
         <v>Cena (Kč)</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="370" t="str">
+      <c r="A37" s="387" t="str">
         <f>IF(Instructions!B1="CZ","Tržní potenciál pro výrobek a čtvrtletí","Market potential for one product and one quarter")</f>
         <v>Tržní potenciál pro výrobek a čtvrtletí</v>
       </c>
-      <c r="B37" s="371"/>
-      <c r="C37" s="371"/>
-      <c r="D37" s="371"/>
-      <c r="E37" s="371"/>
+      <c r="B37" s="388"/>
+      <c r="C37" s="388"/>
+      <c r="D37" s="388"/>
+      <c r="E37" s="388"/>
       <c r="F37" s="280">
         <v>25000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="368" t="str">
+      <c r="A38" s="385" t="str">
         <f>IF(Instructions!B1="CZ","Ceny konkurentů v aktuálním kole","Prices of competitors in the current quarter")</f>
         <v>Ceny konkurentů v aktuálním kole</v>
       </c>
-      <c r="B38" s="369"/>
-      <c r="C38" s="369"/>
-      <c r="D38" s="369"/>
-      <c r="E38" s="369"/>
+      <c r="B38" s="386"/>
+      <c r="C38" s="386"/>
+      <c r="D38" s="386"/>
+      <c r="E38" s="386"/>
       <c r="F38" s="22">
         <v>5000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="368" t="str">
+      <c r="A39" s="385" t="str">
         <f>IF(Instructions!B1="CZ","Prodej konkurentů v aktuálním kole","Sales of competitors in the recent quarter")</f>
         <v>Prodej konkurentů v aktuálním kole</v>
       </c>
-      <c r="B39" s="369"/>
-      <c r="C39" s="369"/>
-      <c r="D39" s="369"/>
-      <c r="E39" s="369"/>
+      <c r="B39" s="386"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="386"/>
+      <c r="E39" s="386"/>
       <c r="F39" s="22">
         <v>20000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="366" t="str">
+      <c r="A40" s="383" t="str">
         <f>IF(Instructions!B1="CZ","Nákupní ceny surovin v dalších čtvrtletích (n+1), (n+2), (n+3) a/nebo (n+4)","Prices of raw materials in quarters (n+1), (n+2), (n+3) and/or (n+4)")</f>
         <v>Nákupní ceny surovin v dalších čtvrtletích (n+1), (n+2), (n+3) a/nebo (n+4)</v>
       </c>
-      <c r="B40" s="367"/>
-      <c r="C40" s="367"/>
-      <c r="D40" s="367"/>
-      <c r="E40" s="367"/>
+      <c r="B40" s="384"/>
+      <c r="C40" s="384"/>
+      <c r="D40" s="384"/>
+      <c r="E40" s="384"/>
       <c r="F40" s="26">
         <v>10000</v>
       </c>
@@ -9224,6 +9224,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="A31:E31"/>
@@ -9235,13 +9242,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9276,32 +9276,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="335" t="str">
+      <c r="A1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("FINANČNÍ VÝSLEDKY FIRMY ",Instructions!$B$5),CONCATENATE("FINANCIAL RESULTS FOR COMPANY ",Instructions!$B$5))</f>
         <v>FINANČNÍ VÝSLEDKY FIRMY Byte Strategists</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="G1" s="335" t="str">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="G1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("ROČNÍ SOUHRN FIRMY ",Instructions!$B$5),CONCATENATE("FOUR-QUARTER SURVEY FOR COMPANY ",Instructions!$B$5))</f>
         <v>ROČNÍ SOUHRN FIRMY Byte Strategists</v>
       </c>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="338" t="str">
+      <c r="A3" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","MARKETING A PRODEJ","MARKETING AND SALES")</f>
         <v>MARKETING A PRODEJ</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
       <c r="D3" s="104" t="str">
         <f>IF(Instructions!$B$1="CZ","Čtvrtletí:","Quarter: ")</f>
         <v>Čtvrtletí:</v>
@@ -9409,8 +9409,8 @@
       <c r="C6" s="123">
         <v>680</v>
       </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="343"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
       <c r="G6" s="226" t="str">
         <f>IF(Instructions!$B$1="CZ","Nepřímé náklady","Indirect costs")</f>
         <v>Nepřímé náklady</v>
@@ -9560,14 +9560,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="338" t="str">
+      <c r="A11" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝROBA","PRODUCTION")</f>
         <v>VÝROBA</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="343"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="342"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
       <c r="G11" s="226" t="str">
         <f>IF(Instructions!$B$1="CZ","Mimořádné příjmy","Extraordinary revenues")</f>
         <v>Mimořádné příjmy</v>
@@ -9788,12 +9788,12 @@
       <c r="L17" s="300"/>
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="str">
+      <c r="A18" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","ZÁSOBOVÁNÍ","PROCUREMENT")</f>
         <v>ZÁSOBOVÁNÍ</v>
       </c>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="342"/>
       <c r="D18" s="1"/>
       <c r="E18" s="214"/>
       <c r="G18" s="231" t="str">
@@ -10013,14 +10013,14 @@
       <c r="L25" s="301"/>
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="str">
+      <c r="A26" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","LIDSKÉ ZDROJE","HUMAN RESOURCES")</f>
         <v>LIDSKÉ ZDROJE</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="334"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
       <c r="G26" s="235" t="str">
         <f>IF(Instructions!$B$1="CZ","Suroviny - sleva","Raw materials - discount")</f>
         <v>Suroviny - sleva</v>
@@ -10242,10 +10242,10 @@
       <c r="L33" s="200"/>
     </row>
     <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="341" t="s">
+      <c r="A34" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="341"/>
+      <c r="B34" s="343"/>
       <c r="C34" s="134"/>
       <c r="D34" s="134"/>
       <c r="E34" s="134"/>
@@ -10559,14 +10559,14 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="332" t="str">
+      <c r="A56" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","ROZVAHA","BALANCE SHEET")</f>
         <v>ROZVAHA</v>
       </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="334"/>
+      <c r="B56" s="335"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
+      <c r="E56" s="336"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="128" t="str">
@@ -10664,10 +10664,10 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="332" t="s">
+      <c r="A64" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="334"/>
+      <c r="B64" s="336"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -10714,11 +10714,11 @@
     </row>
     <row r="70" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="336" t="str">
+      <c r="A71" s="338" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝKAZ ZISKŮ A ZTRÁT","PROFIT AND LOSS ACCOUNT")</f>
         <v>VÝKAZ ZISKŮ A ZTRÁT</v>
       </c>
-      <c r="B71" s="337"/>
+      <c r="B71" s="339"/>
       <c r="G71" s="7" t="str">
         <f>IF(Instructions!$B$1="CZ","Ziskovost-STOLY","Profitability-DESKS")</f>
         <v>Ziskovost-STOLY</v>
@@ -11097,32 +11097,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="335" t="str">
+      <c r="A1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("FINANČNÍ VÝSLEDKY FIRMY ",Instructions!$B$5),CONCATENATE("FINANCIAL RESULTS FOR COMPANY ",Instructions!$B$5))</f>
         <v>FINANČNÍ VÝSLEDKY FIRMY Byte Strategists</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="G1" s="335" t="str">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="G1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("ROČNÍ SOUHRN FIRMY ",Instructions!$B$5),CONCATENATE("FOUR-QUARTER SURVEY FOR COMPANY ",Instructions!$B$5))</f>
         <v>ROČNÍ SOUHRN FIRMY Byte Strategists</v>
       </c>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="338" t="str">
+      <c r="A3" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","MARKETING A PRODEJ","MARKETING AND SALES")</f>
         <v>MARKETING A PRODEJ</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
       <c r="D3" s="104" t="str">
         <f>IF(Instructions!$B$1="CZ","Čtvrtletí:","Quarter: ")</f>
         <v>Čtvrtletí:</v>
@@ -11359,12 +11359,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="338" t="str">
+      <c r="A11" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝROBA","PRODUCTION")</f>
         <v>VÝROBA</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="342"/>
       <c r="D11" s="128"/>
       <c r="G11" s="226" t="str">
         <f>IF(Instructions!$B$1="CZ","Mimořádné příjmy","Extraordinary revenues")</f>
@@ -11566,12 +11566,12 @@
       <c r="L17" s="300"/>
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="str">
+      <c r="A18" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","ZÁSOBOVÁNÍ","PROCUREMENT")</f>
         <v>ZÁSOBOVÁNÍ</v>
       </c>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="342"/>
       <c r="D18" s="218"/>
       <c r="E18" s="1"/>
       <c r="G18" s="231" t="str">
@@ -11772,14 +11772,14 @@
       <c r="L25" s="301"/>
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="str">
+      <c r="A26" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","LIDSKÉ ZDROJE","HUMAN RESOURCES")</f>
         <v>LIDSKÉ ZDROJE</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="334"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
       <c r="G26" s="235" t="str">
         <f>IF(Instructions!$B$1="CZ","Suroviny - sleva","Raw materials - discount")</f>
         <v>Suroviny - sleva</v>
@@ -11977,10 +11977,10 @@
       <c r="L33" s="200"/>
     </row>
     <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="341" t="s">
+      <c r="A34" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="341"/>
+      <c r="B34" s="343"/>
       <c r="C34" s="134"/>
       <c r="D34" s="134"/>
       <c r="E34" s="134"/>
@@ -12275,14 +12275,14 @@
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="332" t="str">
+      <c r="A56" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","ROZVAHA","BALANCE SHEET")</f>
         <v>ROZVAHA</v>
       </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="334"/>
+      <c r="B56" s="335"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
+      <c r="E56" s="336"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="128" t="str">
@@ -12379,10 +12379,10 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="332" t="s">
+      <c r="A64" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="334"/>
+      <c r="B64" s="336"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -12429,11 +12429,11 @@
     </row>
     <row r="70" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="336" t="str">
+      <c r="A71" s="338" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝKAZ ZISKŮ A ZTRÁT","PROFIT AND LOSS ACCOUNT")</f>
         <v>VÝKAZ ZISKŮ A ZTRÁT</v>
       </c>
-      <c r="B71" s="337"/>
+      <c r="B71" s="339"/>
       <c r="G71" s="7" t="str">
         <f>IF(Instructions!$B$1="CZ","Ziskovost-STOLY","Profitability-DESKS")</f>
         <v>Ziskovost-STOLY</v>
@@ -12826,32 +12826,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="335" t="str">
+      <c r="A1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("FINANČNÍ VÝSLEDKY FIRMY ",Instructions!$B$5),CONCATENATE("FINANCIAL RESULTS FOR COMPANY ",Instructions!$B$5))</f>
         <v>FINANČNÍ VÝSLEDKY FIRMY Byte Strategists</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="G1" s="335" t="str">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="G1" s="337" t="str">
         <f>IF(Instructions!$B$1="CZ",CONCATENATE("ROČNÍ SOUHRN FIRMY ",Instructions!$B$5),CONCATENATE("FOUR-QUARTER SURVEY FOR COMPANY ",Instructions!$B$5))</f>
         <v>ROČNÍ SOUHRN FIRMY Byte Strategists</v>
       </c>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="338" t="str">
+      <c r="A3" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","MARKETING A PRODEJ","MARKETING AND SALES")</f>
         <v>MARKETING A PRODEJ</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
       <c r="D3" s="104" t="str">
         <f>IF(Instructions!$B$1="CZ","Čtvrtletí:","Quarter: ")</f>
         <v>Čtvrtletí:</v>
@@ -12944,8 +12944,8 @@
       <c r="C6" s="123">
         <v>210</v>
       </c>
-      <c r="D6" s="342"/>
-      <c r="E6" s="343"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="345"/>
       <c r="G6" s="226" t="str">
         <f>IF(Instructions!$B$1="CZ","Nepřímé náklady","Indirect costs")</f>
         <v>Nepřímé náklady</v>
@@ -13062,14 +13062,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="338" t="str">
+      <c r="A11" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝROBA","PRODUCTION")</f>
         <v>VÝROBA</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="343"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="342"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
       <c r="F11" s="129"/>
       <c r="G11" s="226" t="str">
         <f>IF(Instructions!$B$1="CZ","Mimořádné příjmy","Extraordinary revenues")</f>
@@ -13242,12 +13242,12 @@
       <c r="L17" s="300"/>
     </row>
     <row r="18" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="str">
+      <c r="A18" s="340" t="str">
         <f>IF(Instructions!$B$1="CZ","ZÁSOBOVÁNÍ","PROCUREMENT")</f>
         <v>ZÁSOBOVÁNÍ</v>
       </c>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="342"/>
       <c r="D18" s="218"/>
       <c r="E18" s="1"/>
       <c r="G18" s="231" t="str">
@@ -13450,14 +13450,14 @@
       <c r="L25" s="188"/>
     </row>
     <row r="26" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="str">
+      <c r="A26" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","LIDSKÉ ZDROJE","HUMAN RESOURCES")</f>
         <v>LIDSKÉ ZDROJE</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="334"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
       <c r="G26" s="235" t="str">
         <f>IF(Instructions!$B$1="CZ","Suroviny - sleva","Raw materials - discount")</f>
         <v>Suroviny - sleva</v>
@@ -13632,10 +13632,10 @@
       <c r="L33" s="200"/>
     </row>
     <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="341" t="s">
+      <c r="A34" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="341"/>
+      <c r="B34" s="343"/>
       <c r="C34" s="134"/>
       <c r="D34" s="134"/>
       <c r="E34" s="134"/>
@@ -13913,14 +13913,14 @@
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="332" t="str">
+      <c r="A56" s="334" t="str">
         <f>IF(Instructions!$B$1="CZ","ROZVAHA","BALANCE SHEET")</f>
         <v>ROZVAHA</v>
       </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="334"/>
+      <c r="B56" s="335"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
+      <c r="E56" s="336"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="128" t="str">
@@ -14017,10 +14017,10 @@
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="332" t="s">
+      <c r="A64" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="334"/>
+      <c r="B64" s="336"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -14066,11 +14066,11 @@
     </row>
     <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="336" t="str">
+      <c r="A71" s="338" t="str">
         <f>IF(Instructions!$B$1="CZ","VÝKAZ ZISKŮ A ZTRÁT","PROFIT AND LOSS ACCOUNT")</f>
         <v>VÝKAZ ZISKŮ A ZTRÁT</v>
       </c>
-      <c r="B71" s="337"/>
+      <c r="B71" s="339"/>
       <c r="G71" s="7" t="str">
         <f>IF(Instructions!$B$1="CZ","Ziskovost-STOLY","Profitability-DESKS")</f>
         <v>Ziskovost-STOLY</v>
@@ -14558,7 +14558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D4" s="281" t="s">
         <v>76</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D5" s="281" t="s">
         <v>77</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D6" s="281" t="s">
         <v>78</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D8" s="281" t="s">
         <v>80</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="282"/>
       <c r="B10" s="282"/>
       <c r="C10" s="282"/>
@@ -14617,7 +14617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="282"/>
       <c r="B11" s="282"/>
       <c r="C11" s="282"/>
@@ -14628,7 +14628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="282"/>
       <c r="B12" s="282"/>
       <c r="C12" s="282"/>
@@ -14650,7 +14650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="282"/>
       <c r="B14" s="282"/>
       <c r="C14" s="282"/>
@@ -14661,7 +14661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
       <c r="D15" s="281" t="s">
         <v>125</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="282"/>
       <c r="B16" s="282"/>
       <c r="C16" s="282"/>
@@ -14688,7 +14688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D18" s="281">
         <v>559</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D19" s="281">
         <v>559</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="282"/>
       <c r="B20" s="282"/>
       <c r="C20" s="282"/>
@@ -14739,7 +14739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D24" s="281" t="s">
         <v>128</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="D25" s="281" t="s">
         <v>129</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="282"/>
       <c r="B30" s="282"/>
       <c r="C30" s="282"/>
@@ -14823,7 +14823,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D33" s="281">
         <v>870</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D35" s="281">
         <v>600</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D36" s="281">
         <v>911</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D37" s="281" t="s">
         <v>131</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D40" s="281" t="s">
         <v>134</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D42" s="281" t="s">
         <v>136</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>69.319999999999993</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="N191" s="289" t="s">
         <v>122</v>
       </c>
@@ -16428,15 +16428,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004086881BA9653A44AF9DCFBA53F324AC" ma:contentTypeVersion="12" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="629772260ad9ed61770156b13d7b62ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d6b274be-1f9a-4029-8f69-3aedd37a3971" xmlns:ns4="881cf40d-6505-4f0e-a9cf-428c0670ba00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11995f87f94710118d9c4b188b84b024" ns3:_="" ns4:_="">
     <xsd:import namespace="d6b274be-1f9a-4029-8f69-3aedd37a3971"/>
@@ -16651,6 +16642,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BB794-D031-4E22-B757-A473348FBAE2}">
   <ds:schemaRefs>
@@ -16669,14 +16669,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA7E301-2A58-4963-8161-F78B14B982DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F36EE39-6461-4034-9D69-5545D0315133}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16693,4 +16685,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA7E301-2A58-4963-8161-F78B14B982DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>